--- a/docs/odh/shr-core-TreatmentIntent-extension.xlsx
+++ b/docs/odh/shr-core-TreatmentIntent-extension.xlsx
@@ -137,7 +137,7 @@
     <t>TreatmentIntent</t>
   </si>
   <si>
-    <t>The intended result from a given treatment.  Examples include curative, palliative, and supportive.</t>
+    <t>The purpose of a treatment.</t>
   </si>
   <si>
     <t>1</t>
@@ -193,7 +193,7 @@
     <t>Source of the definition for the extension code - a logical name or a URL.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TreatmentIntent-extension"/&gt;</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-TreatmentIntent-extension"/&gt;</t>
   </si>
   <si>
     <t>Extension.valueCodeableConcept</t>
@@ -212,7 +212,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/TreatmentIntentVS</t>
+    <t>http://hl7.org/fhir/us/odh/ValueSet/shr-core-TreatmentIntentVS</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -364,7 +364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -397,7 +397,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.69140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.3828125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
